--- a/Porfolio/Documents/Rating Application - python/Group_TestCase_assessment making.xlsx
+++ b/Porfolio/Documents/Rating Application - python/Group_TestCase_assessment making.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangChuong\Documents\R&amp;D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ITEC\GitHub\2\Blockchain-Project\Porfolio\Documents\Rating Application - python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32D27D95-2942-48E3-87D9-FF656073844E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6051A-30F7-408D-82EC-C30DDADB36A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="5991" xr2:uid="{04470AD8-FCDD-49EC-9FBC-CF6BD9A03FE8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16455" windowHeight="5985" xr2:uid="{04470AD8-FCDD-49EC-9FBC-CF6BD9A03FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>PROJECT NAME</t>
   </si>
@@ -177,6 +177,21 @@
   </si>
   <si>
     <t>Actual result</t>
+  </si>
+  <si>
+    <t>FAIL CONDITION</t>
+  </si>
+  <si>
+    <t>Username or password is not exist</t>
+  </si>
+  <si>
+    <t>Choice is not correct (lower than 1 or exceeding 5)</t>
+  </si>
+  <si>
+    <t>TEST CASE #3 - FAIL CONDITION</t>
+  </si>
+  <si>
+    <t>ID supervisor not correct, ID record not correct</t>
   </si>
 </sst>
 </file>
@@ -215,7 +230,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -381,24 +396,95 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -409,89 +495,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,435 +901,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A704DB-8073-4AEE-B9C2-A9F394A43D1C}">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="H1" s="36" t="s">
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
+      <c r="H1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="K1" s="3"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="14" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J3" s="14" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="15"/>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="J4" s="14" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
+      <c r="J4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="15"/>
-      <c r="L4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="J5" s="14" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="J5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="15"/>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="J6" s="14" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="15"/>
-      <c r="L6" s="16"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="J7" s="14" t="s">
+      <c r="E7" s="39"/>
+      <c r="F7" s="40"/>
+      <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="15"/>
-      <c r="L7" s="16"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="11" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11" t="s">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="11" t="s">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="12"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="30"/>
       <c r="Q9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="17" t="s">
+      <c r="R9" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="43"/>
+      <c r="X9" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="43"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="14" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="23" t="s">
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="14" t="s">
+      <c r="R10" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="24"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12" s="17" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="25" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="17" t="s">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="23" t="s">
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="24"/>
-    </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="17" t="s">
+      <c r="R12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="17"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="17" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="14" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="17" t="s">
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="23" t="s">
+      <c r="O14" s="13"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="32"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="14" t="s">
+      <c r="R14" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="47"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="35"/>
-    </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="32"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="14" t="s">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="50"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="35"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="31" t="s">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="50"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="24"/>
-    </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" s="36" t="s">
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="52"/>
+      <c r="T17" s="52"/>
+      <c r="U17" s="53"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="37"/>
-      <c r="E20" s="36" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="7"/>
+      <c r="E20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="38"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="39"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" s="17" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="9"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-    </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="H1:I2"/>
-    <mergeCell ref="A20:C21"/>
-    <mergeCell ref="A22:C27"/>
-    <mergeCell ref="E20:G21"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="N14:P17"/>
-    <mergeCell ref="Q14:Q17"/>
-    <mergeCell ref="F14:I17"/>
-    <mergeCell ref="C14:E17"/>
-    <mergeCell ref="A14:B17"/>
-    <mergeCell ref="N12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="J12:M13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="N10:P11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="F10:I11"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:I9"/>
+  <mergeCells count="42">
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:U11"/>
+    <mergeCell ref="R12:U13"/>
+    <mergeCell ref="R14:U17"/>
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:P9"/>
     <mergeCell ref="A6:C6"/>
@@ -1299,13 +1371,37 @@
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="F10:I11"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="N12:P13"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="J12:M13"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="N14:P17"/>
+    <mergeCell ref="Q14:Q17"/>
+    <mergeCell ref="F14:I17"/>
+    <mergeCell ref="C14:E17"/>
+    <mergeCell ref="A14:B17"/>
+    <mergeCell ref="H1:I2"/>
+    <mergeCell ref="A20:C21"/>
+    <mergeCell ref="A22:C27"/>
+    <mergeCell ref="E20:G21"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:I9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>